--- a/2º Ano/2º Semestre/BD/requisitos.xlsx
+++ b/2º Ano/2º Semestre/BD/requisitos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\stuff\2º Ano\2º Semestre\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7387F88-1425-474F-A22B-25FFD65988C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2C8332-6AC9-4C1D-A1EC-834F1456E2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="345" windowWidth="21600" windowHeight="11505" xr2:uid="{4F4F67C9-A4E4-451C-B4F2-DF90DFDE976D}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
   <si>
     <t>Nr</t>
   </si>
@@ -74,25 +75,40 @@
     <t>Geral</t>
   </si>
   <si>
-    <t>Wazzup</t>
-  </si>
-  <si>
-    <t>Cada projeto é definido por: id, nome, estado, equipas associadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cada equipa é definida por: id, nome, colaboradores, projeto </t>
-  </si>
-  <si>
     <t>Sistema de procura de utilizadores/projetos/equipa por nome/id</t>
   </si>
   <si>
     <t>Gestão de informação</t>
   </si>
   <si>
-    <t>Product log é um conjunto de workspaces</t>
-  </si>
-  <si>
-    <t>Um card está associado a um utilizador: id, nome, task/workpackage associada, equipa, projeto, pontos fortes e fracos</t>
+    <t>João Braga</t>
+  </si>
+  <si>
+    <t>Apenas o gestor do projeto é capaz de convidar diretamente colaboradores para uma equipa ou projeto, convites de colaboradores para outros utilizadores terão de ser aprovados pelo gestor.</t>
+  </si>
+  <si>
+    <t>Um card está associado a um utilizador: id, nome, task/workpackage associada</t>
+  </si>
+  <si>
+    <t>Um product increment, com duração média de 2 meses, é constituído por sprints, com duração média de 2 semanas cada.</t>
+  </si>
+  <si>
+    <t>Workpackage é definido por id, nome, descrição da tarefa,…</t>
+  </si>
+  <si>
+    <t>Cada equipa é definida por: id, nome, colaboradores, projeto,...</t>
+  </si>
+  <si>
+    <t>Cada projeto é definido por: id, nome, estado, equipas associadas, número de product increments associados, …</t>
+  </si>
+  <si>
+    <t>Cada projeto contém um product backlog, que por si só é um conjunto de workpackages.</t>
+  </si>
+  <si>
+    <t>Um product increment é definido por: id, tempo de início, tempo de término, projeto associado, sprints,…</t>
+  </si>
+  <si>
+    <t>Sprint é definido por: id, tempo de início, tempo de término, sprint backlog (conjunto de workpackages a ser feitas, provenientes do product backlog),…</t>
   </si>
 </sst>
 </file>
@@ -562,15 +578,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858D40E9-6116-4925-875D-758A76FD403A}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="47.85546875" style="13" customWidth="1"/>
@@ -626,15 +643,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="10">
-        <v>44654</v>
-      </c>
+      <c r="C7" s="10"/>
       <c r="D7" s="12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>12</v>
@@ -643,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>1</v>
@@ -653,11 +668,9 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="10">
-        <v>44655</v>
-      </c>
+      <c r="C8" s="10"/>
       <c r="D8" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>12</v>
@@ -666,21 +679,19 @@
         <v>11</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="10">
-        <v>44656</v>
-      </c>
+      <c r="C9" s="10"/>
       <c r="D9" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>12</v>
@@ -689,7 +700,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>1</v>
@@ -697,34 +708,30 @@
     </row>
     <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="10">
-        <v>44657</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C10" s="10"/>
       <c r="D10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11" s="10">
-        <v>44658</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C11" s="10"/>
       <c r="D11" s="12" t="s">
         <v>18</v>
       </c>
@@ -735,301 +742,329 @@
         <v>11</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>6</v>
-      </c>
-      <c r="C12" s="10">
-        <v>44659</v>
-      </c>
-      <c r="D12" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>7</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44660</v>
-      </c>
-      <c r="D13" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="E13" s="12"/>
       <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>8</v>
-      </c>
-      <c r="C14" s="10">
-        <v>44661</v>
-      </c>
-      <c r="D14" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>9</v>
-      </c>
-      <c r="C15" s="10">
-        <v>44662</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C15" s="10"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <v>10</v>
-      </c>
-      <c r="C16" s="10">
-        <v>44663</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
-        <v>11</v>
-      </c>
-      <c r="C17" s="10">
-        <v>44664</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>12</v>
-      </c>
-      <c r="C18" s="10">
-        <v>44665</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="11" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C20" s="10"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="11"/>
+      <c r="H25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
-        <v>20</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="E26" s="12"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="3"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
@@ -1179,6 +1214,9 @@
       <c r="H48" s="6"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H33">
+    <sortCondition ref="H7:H33" customList="Descrição,Manipulação,Controlo"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2º Ano/2º Semestre/BD/requisitos.xlsx
+++ b/2º Ano/2º Semestre/BD/requisitos.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\stuff\2º Ano\2º Semestre\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2C8332-6AC9-4C1D-A1EC-834F1456E2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EFB2F0-57EB-4BE8-997D-89CAA0FF2143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="345" windowWidth="21600" windowHeight="11505" xr2:uid="{4F4F67C9-A4E4-451C-B4F2-DF90DFDE976D}"/>
+    <workbookView xWindow="12975" yWindow="7200" windowWidth="21600" windowHeight="11505" xr2:uid="{4F4F67C9-A4E4-451C-B4F2-DF90DFDE976D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
   <si>
     <t>Nr</t>
   </si>
@@ -84,9 +83,6 @@
     <t>João Braga</t>
   </si>
   <si>
-    <t>Apenas o gestor do projeto é capaz de convidar diretamente colaboradores para uma equipa ou projeto, convites de colaboradores para outros utilizadores terão de ser aprovados pelo gestor.</t>
-  </si>
-  <si>
     <t>Um card está associado a um utilizador: id, nome, task/workpackage associada</t>
   </si>
   <si>
@@ -96,9 +92,6 @@
     <t>Workpackage é definido por id, nome, descrição da tarefa,…</t>
   </si>
   <si>
-    <t>Cada equipa é definida por: id, nome, colaboradores, projeto,...</t>
-  </si>
-  <si>
     <t>Cada projeto é definido por: id, nome, estado, equipas associadas, número de product increments associados, …</t>
   </si>
   <si>
@@ -109,6 +102,39 @@
   </si>
   <si>
     <t>Sprint é definido por: id, tempo de início, tempo de término, sprint backlog (conjunto de workpackages a ser feitas, provenientes do product backlog),…</t>
+  </si>
+  <si>
+    <t>O sistema deve ser capaz de, acedendo a um projeto, mostrar toda a informação associada a esse projeto (equipas, "timeline" atual, trabalho já concluído, etc.)</t>
+  </si>
+  <si>
+    <t>Apenas o gestor do projeto é capaz de convidar diretamente colaboradores para uma equipa ou projeto. Convites de colaboradores para outros utilizadores terão de ser aprovados pelo gestor.</t>
+  </si>
+  <si>
+    <t>Acessos</t>
+  </si>
+  <si>
+    <t>O sistema deve apresentar opções de ordenação dos projetos/PI/sprints (ordem crescente, decrescente de tempo/id/…)</t>
+  </si>
+  <si>
+    <t>O utilizador decide se pretende que o seu perfil (card) seja público, privado ou acessível para amigos.</t>
+  </si>
+  <si>
+    <t>O utilizador, ao criar um novo projeto, deve escolher se o projeto será privado ou público.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Um gestor pode mover um membro de uma equipa para outra, tal como mover equipas entre projetos dos quais seja gestor.</t>
+  </si>
+  <si>
+    <t>Um gestor pode criar ou apagar uma equipa de um projeto.</t>
+  </si>
+  <si>
+    <t>As equipas são capazes de criar os seus workpackages.</t>
+  </si>
+  <si>
+    <t>Cada equipa é definida por: id, nome, nº de elementos, colaboradores, projeto,...</t>
   </si>
 </sst>
 </file>
@@ -581,8 +607,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +675,7 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>12</v>
@@ -670,7 +696,7 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="12" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>12</v>
@@ -691,7 +717,7 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>12</v>
@@ -712,7 +738,7 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>12</v>
@@ -733,7 +759,7 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
@@ -754,9 +780,11 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
@@ -773,9 +801,11 @@
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
@@ -792,9 +822,11 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
@@ -849,7 +881,9 @@
         <v>27</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="2"/>
       <c r="G18" s="11"/>
@@ -878,39 +912,59 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>12</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="11"/>
+      <c r="D20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>13</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="11"/>
+      <c r="D21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H21" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>14</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="11"/>
       <c r="H22" s="3" t="s">
@@ -962,9 +1016,11 @@
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="F26" s="2" t="s">
         <v>11</v>
       </c>
@@ -975,38 +1031,56 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>18</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="11"/>
+      <c r="D27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H27" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>19</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="11"/>
+      <c r="D28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H28" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>20</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="E29" s="12"/>
       <c r="F29" s="2"/>
       <c r="G29" s="11"/>
@@ -1014,12 +1088,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>21</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="E30" s="12"/>
       <c r="F30" s="2"/>
       <c r="G30" s="11"/>
